--- a/VungTrong/SPA_NoSMOTE/Ket qua phan loai spa ML khong dao ham.xlsx
+++ b/VungTrong/SPA_NoSMOTE/Ket qua phan loai spa ML khong dao ham.xlsx
@@ -786,13 +786,13 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2">
-        <v>0.8888888888888888</v>
+        <v>1</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.9411764705882353</v>
+        <v>1</v>
       </c>
       <c r="D2">
         <v>8</v>
@@ -800,13 +800,13 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3">
-        <v>0.875</v>
+        <v>0.8</v>
       </c>
       <c r="B3">
-        <v>0.875</v>
+        <v>1</v>
       </c>
       <c r="C3">
-        <v>0.875</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="D3">
         <v>8</v>
@@ -831,10 +831,10 @@
         <v>1</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>0.9333333333333333</v>
       </c>
       <c r="D5">
         <v>8</v>
@@ -856,13 +856,13 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7">
-        <v>0.9409722222222222</v>
+        <v>0.95</v>
       </c>
       <c r="B7">
         <v>0.9375</v>
       </c>
       <c r="C7">
-        <v>0.9373774509803922</v>
+        <v>0.9388888888888889</v>
       </c>
       <c r="D7">
         <v>32</v>
@@ -870,13 +870,13 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8">
-        <v>0.9409722222222222</v>
+        <v>0.95</v>
       </c>
       <c r="B8">
         <v>0.9375</v>
       </c>
       <c r="C8">
-        <v>0.9373774509803922</v>
+        <v>0.9388888888888889</v>
       </c>
       <c r="D8">
         <v>32</v>
@@ -925,13 +925,13 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3">
-        <v>0.75</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="B3">
-        <v>0.75</v>
+        <v>0.625</v>
       </c>
       <c r="C3">
-        <v>0.75</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="D3">
         <v>8</v>
@@ -953,13 +953,13 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5">
-        <v>0.8333333333333334</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="B5">
         <v>0.625</v>
       </c>
       <c r="C5">
-        <v>0.7142857142857143</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="D5">
         <v>8</v>
@@ -967,27 +967,27 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6">
-        <v>0.78125</v>
+        <v>0.75</v>
       </c>
       <c r="B6">
-        <v>0.78125</v>
+        <v>0.75</v>
       </c>
       <c r="C6">
-        <v>0.78125</v>
+        <v>0.75</v>
       </c>
       <c r="D6">
-        <v>0.78125</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7">
-        <v>0.8049242424242424</v>
+        <v>0.7662337662337663</v>
       </c>
       <c r="B7">
-        <v>0.78125</v>
+        <v>0.75</v>
       </c>
       <c r="C7">
-        <v>0.7836152882205514</v>
+        <v>0.7508771929824561</v>
       </c>
       <c r="D7">
         <v>32</v>
@@ -995,13 +995,13 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8">
-        <v>0.8049242424242424</v>
+        <v>0.7662337662337663</v>
       </c>
       <c r="B8">
-        <v>0.78125</v>
+        <v>0.75</v>
       </c>
       <c r="C8">
-        <v>0.7836152882205514</v>
+        <v>0.7508771929824561</v>
       </c>
       <c r="D8">
         <v>32</v>
@@ -1036,13 +1036,13 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2">
-        <v>0.6363636363636364</v>
+        <v>1</v>
       </c>
       <c r="B2">
         <v>0.875</v>
       </c>
       <c r="C2">
-        <v>0.7368421052631579</v>
+        <v>0.9333333333333333</v>
       </c>
       <c r="D2">
         <v>8</v>
@@ -1050,13 +1050,13 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3">
-        <v>0.7777777777777778</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="B3">
-        <v>0.875</v>
+        <v>1</v>
       </c>
       <c r="C3">
-        <v>0.8235294117647058</v>
+        <v>0.8</v>
       </c>
       <c r="D3">
         <v>8</v>
@@ -1081,10 +1081,10 @@
         <v>1</v>
       </c>
       <c r="B5">
-        <v>0.625</v>
+        <v>0.75</v>
       </c>
       <c r="C5">
-        <v>0.7692307692307693</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="D5">
         <v>8</v>
@@ -1092,27 +1092,27 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6">
-        <v>0.8125</v>
+        <v>0.875</v>
       </c>
       <c r="B6">
-        <v>0.8125</v>
+        <v>0.875</v>
       </c>
       <c r="C6">
-        <v>0.8125</v>
+        <v>0.875</v>
       </c>
       <c r="D6">
-        <v>0.8125</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7">
-        <v>0.8535353535353536</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="B7">
-        <v>0.8125</v>
+        <v>0.875</v>
       </c>
       <c r="C7">
-        <v>0.8157339048979915</v>
+        <v>0.880952380952381</v>
       </c>
       <c r="D7">
         <v>32</v>
@@ -1120,13 +1120,13 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8">
-        <v>0.8535353535353536</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="B8">
-        <v>0.8125</v>
+        <v>0.875</v>
       </c>
       <c r="C8">
-        <v>0.8157339048979915</v>
+        <v>0.880952380952381</v>
       </c>
       <c r="D8">
         <v>32</v>
